--- a/biology/Zoologie/Giraffidae/Giraffidae.xlsx
+++ b/biology/Zoologie/Giraffidae/Giraffidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Giraffidés
 Les Giraffidés (Giraffidae) forment une famille de mammifères artiodactyles ruminants qui partagent un ancêtre commun avec les cervidés et les bovidés. Cette famille, autrefois un groupe diversifié réparti dans toute l'Eurasie et l'Afrique, ne comprend actuellement que deux genres existants, la girafe (une ou plusieurs espèces de Giraffa, selon l'interprétation taxonomique) et l'okapi (la seule espèce connue d'Okapia). Les deux sont confinés à l’Afrique subsaharienne : la girafe aux savanes ouvertes et l’okapi à la forêt tropicale dense du Congo. Les deux genres semblent très différents à première vue, mais partagent un certain nombre de caractéristiques communes, notamment une longue langue de couleur foncée, des canines lobées et des cornes recouvertes de peau, appelées ossicônes.
@@ -512,7 +524,9 @@
           <t>Orthographe</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le mot est souvent écrit « girafidé », mais il est préférable d'écrire « giraffidé » car il dérive du genre Giraffa et non du mot « girafe ».[réf. nécessaire]
 </t>
@@ -543,11 +557,13 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La girafe mesure 5 à 6 m de haut, les mâles étant plus grands que les femelles. La girafe et l’okapi ont un long cou et de longues pattes caractéristiques. Les ossicônes sont présentes chez les mâles et les femelles de la girafe, mais uniquement chez les mâles de l'okapi[1].
-Les girafes partagent de nombreuses caractéristiques communes avec les autres ruminants. Ils ont des sabots fendus et des os de canon, un peu comme les bovidés, et un estomac complexe à quatre chambres. Ils n'ont pas d'incisives supérieures ni de canines supérieures, les remplaçant par un coussinet dur et corné. Un diastème particulièrement long est observé entre les dents de devant et des joues. Ces derniers sont des sélénodontes, adaptés pour broyer les matières végétales dures[2]. Comme la plupart des autres ruminants, la formule dentaire des girafes est 0.0.3.33.1.3.3. Les girafes ont une langue préhensile (spécialement adaptée pour la préhension)[3].
-Les giraffidés existants, l'okapi forestier et la girafe vivant dans la savane, ont plusieurs caractéristiques communes, notamment une paire de cornes recouvertes de peau, appelées ossicônes, mesurant jusqu'à 15 cm de long (absentes chez les okapis femelles) ; une longue langue noire et préhensile ; canines lobées ; des manteaux à motifs faisant office de camouflage ; et un dossier incliné vers l'arrière. Le cou de l'okapi est long par rapport à celui de la plupart des ruminants, mais pas aussi long que celui de la girafe. Les girafes mâles sont les plus grands de tous les mammifères : leurs cornes atteignent 5,5 m au-dessus du sol et leurs épaules 3,3 m, tandis que l'okapi a une hauteur d'épaule de 1,7 m[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La girafe mesure 5 à 6 m de haut, les mâles étant plus grands que les femelles. La girafe et l’okapi ont un long cou et de longues pattes caractéristiques. Les ossicônes sont présentes chez les mâles et les femelles de la girafe, mais uniquement chez les mâles de l'okapi.
+Les girafes partagent de nombreuses caractéristiques communes avec les autres ruminants. Ils ont des sabots fendus et des os de canon, un peu comme les bovidés, et un estomac complexe à quatre chambres. Ils n'ont pas d'incisives supérieures ni de canines supérieures, les remplaçant par un coussinet dur et corné. Un diastème particulièrement long est observé entre les dents de devant et des joues. Ces derniers sont des sélénodontes, adaptés pour broyer les matières végétales dures. Comme la plupart des autres ruminants, la formule dentaire des girafes est 0.0.3.33.1.3.3. Les girafes ont une langue préhensile (spécialement adaptée pour la préhension).
+Les giraffidés existants, l'okapi forestier et la girafe vivant dans la savane, ont plusieurs caractéristiques communes, notamment une paire de cornes recouvertes de peau, appelées ossicônes, mesurant jusqu'à 15 cm de long (absentes chez les okapis femelles) ; une longue langue noire et préhensile ; canines lobées ; des manteaux à motifs faisant office de camouflage ; et un dossier incliné vers l'arrière. Le cou de l'okapi est long par rapport à celui de la plupart des ruminants, mais pas aussi long que celui de la girafe. Les girafes mâles sont les plus grands de tous les mammifères : leurs cornes atteignent 5,5 m au-dessus du sol et leurs épaules 3,3 m, tandis que l'okapi a une hauteur d'épaule de 1,7 m.
 </t>
         </is>
       </c>
@@ -576,9 +592,11 @@
           <t>Comportement</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>La structure sociale et le comportement sont nettement différents chez les okapis et les girafes, mais bien que l'on sache peu de choses sur le comportement de l'okapi à l'état sauvage, on sait que quelques éléments sont présents chez les deux espèces[4] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>La structure sociale et le comportement sont nettement différents chez les okapis et les girafes, mais bien que l'on sache peu de choses sur le comportement de l'okapi à l'état sauvage, on sait que quelques éléments sont présents chez les deux espèces :
 Ils ont une démarche errante semblable à celle des chameaux, leur poids étant supporté alternativement par leurs pattes gauche et droite, tandis que leur cou maintient l'équilibre. Les girafes peuvent ainsi courir jusqu'à 60 km/h et auraient parcouru 1 500 km au Sahel pendant la saison sèche.
 La hiérarchie de dominance, bien documentée chez les girafes, a également été observée chez les okapis en captivité. Une tête de girafe adulte peut peser 30 kg, et si nécessaire, les girafes mâles établissent une hiérarchie entre elles en balançant la tête l'une vers l'autre, les cornes en premier, un comportement connu sous le nom de « necking ». Un okapi subordonné signale sa soumission en plaçant sa tête et son cou sur le sol.
 Les girafes sont sociables, tandis que les okapis vivent principalement en solitaire. Les girafes forment temporairement des troupeaux pouvant aller jusqu'à 20 individus ; ces troupeaux peuvent être des groupes mixtes ou uniformes de mâles et de femelles, de jeunes et d'adultes. Les okapis sont normalement observés en couples mère-enfant, bien qu'ils se rassemblent occasionnellement autour d'une source de nourriture principale. Les girafes ne sont pas territoriales, mais ont des aires de répartition qui peuvent varier considérablement entre 5 et 654 km2 – en fonction de la disponibilité de nourriture, tandis que les okapis ont des aires de répartition individuelles d'environ 2,5 à 5 km2.
@@ -610,9 +628,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les deux genres existants sont désormais confinés à l'Afrique subsaharienne. L'okapi est limité à une petite aire de répartition dans la forêt tropicale du nord de la République démocratique du Congo. Bien que l’aire de répartition de la girafe soit considérablement plus grande, elle couvrait autrefois une superficie deux fois plus grande qu’aujourd’hui – toutes les régions de l’Afrique qui pouvaient offrir un paysage aride et sec meublé d’arbres[4].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les deux genres existants sont désormais confinés à l'Afrique subsaharienne. L'okapi est limité à une petite aire de répartition dans la forêt tropicale du nord de la République démocratique du Congo. Bien que l’aire de répartition de la girafe soit considérablement plus grande, elle couvrait autrefois une superficie deux fois plus grande qu’aujourd’hui – toutes les régions de l’Afrique qui pouvaient offrir un paysage aride et sec meublé d’arbres.
 </t>
         </is>
       </c>
@@ -641,15 +661,52 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Les girafes sont des ruminants du clade des Pecora. Les autres pécoras existants sont les familles des Antilocapridae (pronghorns), des Cervidae (cerfs), des Moschidae (cerf porte-musc) et des Bovidae (bovins, chèvres et moutons, gnous et alliés, et antilopes).
-Phylogénie des familles des Cétartiodactyles actuels (Cétacés non développés)[5],[6],[7] :
-Les ancêtres de l'antilope d'Amérique ont divergé des girafes au Miocène inférieur[8]. Cela faisait partie d’une diversification relativement tardive des mammifères à la suite d'un changement climatique qui a transformé les forêts subtropicales en prairies ouvertes de savane.
-Les archives fossiles des girafes et de leurs parents sont assez nombreuses, les fossiles de ces taxons comprenant les Gelocidae, les Palaeomerycidae, les Prolibytheridae et les Climacoceratidae[9],[10]. On pense que les paléomerycidés, les prolibythérides, les climacocératidés et les girafes forment tous un clade de pécoras connu sous le nom de Giraffomorpha[9],[11]. La relation entre les climatocératides et les girafes est étayée par la présence d'une canine bilobée[9] et a été postulée en deux hypothèses. L'un est que les climacocératidés étaient les ancêtres des sivatheres, car les deux groupes étaient de grands girafoïdes ressemblant à des cerfs avec des ossicônes ramifiés ressemblant à des bois, tandis qu'un groupe basal éteint de giraffoïdes, les canthumerycines, a évolué pour devenir les ancêtres des giraffidés[10]. Une autre hypothèse plus couramment soutenue est que les climacocératidés seraient simplement le clade frère des girafes, les sivatheres étant soit des girafes basaux[9], soit descendant d'une lignée qui comprend également les okapis[12]. Bien que l’aire de répartition actuelle des girafes se trouve aujourd’hui en Afrique, les archives fossiles du groupe ont montré que cette famille était autrefois répandue dans toute l’Eurasie[9],[10],[12].
-Vous trouverez ci-dessous les relations phylogénétiques des giraffomorphes d'après Solounias (2007)[9], Sánchez et al. (2015)[11] et Ríos et al. (2017)[12] :
-Classification
-Vous trouverez ci-dessous la taxonomie totale des taxons existants et fossiles valides (ainsi que les synonymes juniors répertoriés entre parenthèses).
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les girafes sont des ruminants du clade des Pecora. Les autres pécoras existants sont les familles des Antilocapridae (pronghorns), des Cervidae (cerfs), des Moschidae (cerf porte-musc) et des Bovidae (bovins, chèvres et moutons, gnous et alliés, et antilopes).
+Phylogénie des familles des Cétartiodactyles actuels (Cétacés non développés) :
+Les ancêtres de l'antilope d'Amérique ont divergé des girafes au Miocène inférieur. Cela faisait partie d’une diversification relativement tardive des mammifères à la suite d'un changement climatique qui a transformé les forêts subtropicales en prairies ouvertes de savane.
+Les archives fossiles des girafes et de leurs parents sont assez nombreuses, les fossiles de ces taxons comprenant les Gelocidae, les Palaeomerycidae, les Prolibytheridae et les Climacoceratidae,. On pense que les paléomerycidés, les prolibythérides, les climacocératidés et les girafes forment tous un clade de pécoras connu sous le nom de Giraffomorpha,. La relation entre les climatocératides et les girafes est étayée par la présence d'une canine bilobée et a été postulée en deux hypothèses. L'un est que les climacocératidés étaient les ancêtres des sivatheres, car les deux groupes étaient de grands girafoïdes ressemblant à des cerfs avec des ossicônes ramifiés ressemblant à des bois, tandis qu'un groupe basal éteint de giraffoïdes, les canthumerycines, a évolué pour devenir les ancêtres des giraffidés. Une autre hypothèse plus couramment soutenue est que les climacocératidés seraient simplement le clade frère des girafes, les sivatheres étant soit des girafes basaux, soit descendant d'une lignée qui comprend également les okapis. Bien que l’aire de répartition actuelle des girafes se trouve aujourd’hui en Afrique, les archives fossiles du groupe ont montré que cette famille était autrefois répandue dans toute l’Eurasie.
+Vous trouverez ci-dessous les relations phylogénétiques des giraffomorphes d'après Solounias (2007), Sánchez et al. (2015) et Ríos et al. (2017) :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Giraffidae</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Giraffidae</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Vous trouverez ci-dessous la taxonomie totale des taxons existants et fossiles valides (ainsi que les synonymes juniors répertoriés entre parenthèses).
 Famille Giraffidae J.E.Gray, 1821
 Girafes basaux disparus
 † Csakvarotherium Kretzoi, 1930
